--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150732A-3720-4504-8773-B7D6C7BA865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C04EF7-354D-4E13-A927-A734FEBE91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="151">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -268,6 +253,246 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>S1,S2,S3,S4,S5</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>elc_sol-ITA</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S1aH5</t>
+  </si>
+  <si>
+    <t>S1aH6</t>
+  </si>
+  <si>
+    <t>S1aH7</t>
+  </si>
+  <si>
+    <t>S1aH8</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>S2aH5</t>
+  </si>
+  <si>
+    <t>S2aH6</t>
+  </si>
+  <si>
+    <t>S2aH7</t>
+  </si>
+  <si>
+    <t>S2aH8</t>
+  </si>
+  <si>
+    <t>S3aH1</t>
+  </si>
+  <si>
+    <t>S3aH2</t>
+  </si>
+  <si>
+    <t>S3aH3</t>
+  </si>
+  <si>
+    <t>S3aH4</t>
+  </si>
+  <si>
+    <t>S3aH5</t>
+  </si>
+  <si>
+    <t>S3aH6</t>
+  </si>
+  <si>
+    <t>S3aH7</t>
+  </si>
+  <si>
+    <t>S3aH8</t>
+  </si>
+  <si>
+    <t>S4aH1</t>
+  </si>
+  <si>
+    <t>S4aH2</t>
+  </si>
+  <si>
+    <t>S4aH3</t>
+  </si>
+  <si>
+    <t>S4aH4</t>
+  </si>
+  <si>
+    <t>S4aH5</t>
+  </si>
+  <si>
+    <t>S4aH6</t>
+  </si>
+  <si>
+    <t>S4aH7</t>
+  </si>
+  <si>
+    <t>S4aH8</t>
+  </si>
+  <si>
+    <t>S5aH1</t>
+  </si>
+  <si>
+    <t>S5aH2</t>
+  </si>
+  <si>
+    <t>S5aH3</t>
+  </si>
+  <si>
+    <t>S5aH4</t>
+  </si>
+  <si>
+    <t>S5aH5</t>
+  </si>
+  <si>
+    <t>S5aH6</t>
+  </si>
+  <si>
+    <t>S5aH7</t>
+  </si>
+  <si>
+    <t>S5aH8</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>elc_win-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S4aH5,S3aH4,S4aH3,S4aH4,S3aH5,S5aH3,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S3aH2,S5aH4,S4aH2,S3aH3,S1aH4,S2aH2</t>
+  </si>
+  <si>
+    <t>S1aH8,S5aH1,S4aH8,S1aH6,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2aH6,S3aH1,S2aH8,S3aH8,S2aH1,S3aH7,S5aH8,S4aH6,S4aH1</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -744,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -760,13 +985,13 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -780,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -795,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -803,21 +1028,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S1aH8,S5aH1,S4aH8,S1aH6,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2aH6,S3aH1,S2aH8,S3aH8,S2aH1,S3aH7,S5aH8,S4aH6,S4aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -835,21 +1060,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S4aH5,S3aH4,S4aH3,S4aH4,S3aH5,S5aH3,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S3aH2,S5aH4,S4aH2,S3aH3,S1aH4,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -861,26 +1086,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -908,553 +1133,3593 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4278180C-91CC-4850-BCF1-B78F96428190}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5D1E6E-374C-4AE3-89F1-CCDBB64271D4}">
+  <dimension ref="B2:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>4.0774999999999999E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4">
+        <v>0.45489356779268852</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>8.8889999999999998E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>5.3729999999999993E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5">
+        <v>7.7845904673762151E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>2.2627109999999999E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>1.4475999999999999E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6">
+        <v>0.14770939379916706</v>
+      </c>
+      <c r="O6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>3.1515769999999999E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>2.1163000000000001E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7">
+        <v>0.13802637667746412</v>
+      </c>
+      <c r="O7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>6.8002030000000005E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>7.1017999999999998E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8">
+        <v>0.38152475705691813</v>
+      </c>
+      <c r="O8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>2.6397600000000001E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9">
+        <v>1.0756E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <v>1.1674E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>3.3270000000000001E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>1.378014E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12">
+        <v>6.4889000000000002E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>2.2232410000000001E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13">
+        <v>9.8399999999999998E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>6.1518330000000003E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14">
+        <v>3.3799000000000003E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>6.7698190000000005E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15">
+        <v>5.2359999999999997E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>0.15982843999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16">
+        <v>0.17358999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>2.2495669999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17">
+        <v>2.5507999999999999E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>1.179971E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18">
+        <v>2.0265999999999999E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>2.4689500000000001E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19">
+        <v>4.6764E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>6.9502299999999999E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20">
+        <v>1.0950000000000001E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>8.8978100000000008E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21">
+        <v>1.4E-5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>2.1362920000000001E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>1.08E-4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>2.2302309999999999E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23">
+        <v>8.3600000000000005E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>5.0535759999999999E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>1.8824E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>7.6808800000000002E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <v>3.3969999999999998E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>5.4394600000000001E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <v>1.915E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>1.8646700000000001E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>1.9039999999999999E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>5.3654999999999996E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28">
+        <v>4.8161000000000002E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>1.8131049999999999E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29">
+        <v>5.5269999999999998E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>5.9624789999999997E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30">
+        <v>1.5792E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>6.9100110000000006E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31">
+        <v>2.8983999999999999E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>0.15711573000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32">
+        <v>9.9659999999999999E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>1.427003E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33">
+        <v>1.4661E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>5.76283E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>8.2800000000000003E-6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35">
+        <v>3.4647999999999998E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36">
+        <v>2.1659999999999999E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37">
+        <v>2.5929999999999998E-3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>1.024945E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38">
+        <v>5.4539999999999996E-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39">
+        <v>1.5962420000000001E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40">
+        <v>3.2680319999999999E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40">
+        <v>2.0205000000000001E-2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41">
+        <v>2.849E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42">
+        <v>2.9480000000000001E-3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43">
+        <v>1.3637999999999999E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3244CB5-5799-4CAB-B04B-7370C955431A}">
+  <dimension ref="B2:O83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>5.3881278538812784E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.9864505382492607E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4">
+        <v>4.9413150019647384E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4">
+        <v>0.30170207507267222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C5">
+        <v>8.6053584599192871E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5">
+        <v>8.3943858858496045E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5">
+        <v>4.7484009459135335E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.6839121895432966E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6">
+        <v>1.700531767651765E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>4.824655587311355E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.6702218465388795E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1.6777383906641918E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>6.0317454394499759E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3.3675799086757989E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.4037739601720411E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8">
+        <v>4.2415004863410904E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8">
+        <v>7.7866629521058162E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.016996908899552E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9">
+        <v>8.8413511413772579E-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>4.0331772644039976E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C10">
+        <v>9.1920874458228732E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10">
+        <v>8.5385270462681635E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10">
+        <v>3.0789916534887052E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>2.6940639269406392E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.623283527666592E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11">
+        <v>2.8553373673719802E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11">
+        <v>0.109785485062313</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0.11141552511415526</v>
+      </c>
+      <c r="C12">
+        <v>6.1753722994306731E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12">
+        <v>9.0904601496028622E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>0.39609048684121051</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <v>1.4801270832185959E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13">
+        <v>0.17260864196062009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.4819879173607154E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14">
+        <v>2.9861072108283881E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14">
+        <v>0.16771535784982539</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.4536790725041226E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <v>2.9646906653991761E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15">
+        <v>0.1682397095214816</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>6.9634703196347028E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.11173905476965917</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16">
+        <v>7.3928865615248154E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16">
+        <v>0.19323961229369258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>1.5030507466939664E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <v>0.18025049028347295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.9007367260854072E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18">
+        <v>1.4913767770150556E-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18">
+        <v>0.15800839499366748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.3566201758529535E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <v>5.1929529158049881E-2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19">
+        <v>0.19990108030983977</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20">
+        <v>2.3847087699625354E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20">
+        <v>0.29079453954855983</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21">
+        <v>3.9226118087310096E-3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21">
+        <v>7.4383366010698726E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C22">
+        <v>8.8476742162444406E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22">
+        <v>8.0528034089415845E-3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22">
+        <v>6.822201466584521E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C23">
+        <v>8.775741905543262E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23">
+        <v>8.1706582379173116E-3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23">
+        <v>7.2534412655806291E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>1.7694063926940638E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.8392710638192088E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24">
+        <v>2.0148281192040179E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24">
+        <v>8.0585218842956552E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25">
+        <v>3.969488661761114E-3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25">
+        <v>6.0510923392422367E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C26">
+        <v>4.8297408613645603E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26">
+        <v>3.9291786982744333E-3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26">
+        <v>6.5424670864874468E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1.4155251141552512E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.5291168402820937E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27">
+        <v>1.4304428038648183E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27">
+        <v>0.16837934519996667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>0.11141552511415526</v>
+      </c>
+      <c r="C28">
+        <v>6.1753722994306731E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28">
+        <v>9.0201913914656887E-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28">
+        <v>0.3257378459195408</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29">
+        <v>1.458652054518594E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29">
+        <v>0.13113733252573989</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.4819879173607154E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30">
+        <v>2.9773057299849567E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30">
+        <v>0.13375718145694071</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.4536790725041226E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31">
+        <v>2.9841001515502973E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31">
+        <v>0.12830972920522465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>6.9634703196347028E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.11173905476965917</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32">
+        <v>7.4324036133024088E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32">
+        <v>0.16794411000882747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33">
+        <v>1.494214258241032E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33">
+        <v>0.16530699032086882</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.9007367260854072E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34">
+        <v>1.4815325394749541E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34">
+        <v>0.12381007042058645</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.3566201758529535E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>5.2827105256473848E-2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35">
+        <v>0.18969821164223233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36">
+        <v>2.5278796395052556E-2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36">
+        <v>0.3018567715645406</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C37">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37">
+        <v>4.2866483841047468E-3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37">
+        <v>5.8368729564079569E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C38">
+        <v>8.8476742162444406E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38">
+        <v>8.6358981114670781E-3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38">
+        <v>6.3279503760392153E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C39">
+        <v>8.775741905543262E-3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39">
+        <v>8.4215374151759489E-3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O39">
+        <v>6.5636106328051946E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>1.7694063926940638E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.8392710638192088E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40">
+        <v>2.1316051665275386E-2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>133</v>
+      </c>
+      <c r="O40">
+        <v>8.7961716292424663E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C41">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41">
+        <v>4.5114770552655533E-3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41">
+        <v>4.44627304048415E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C42">
+        <v>4.8297408613645603E-3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42">
+        <v>4.3715673897100236E-3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42">
+        <v>3.5079218054054673E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>1.4155251141552512E-2</v>
+      </c>
+      <c r="C43">
+        <v>8.5291168402820937E-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43">
+        <v>1.4567367881845251E-2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O43">
+        <v>0.11194355190956351</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44">
+        <v>5.3084237148893397E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>6.8128512704278962E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46">
+        <v>1.3643016669286061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>1.3624792013555292E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48">
+        <v>3.4099682858947933E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49">
+        <v>6.8485887915071438E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50">
+        <v>6.8243762104431196E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51">
+        <v>2.6849692925335147E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52">
+        <v>0.11009359446781739</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53">
+        <v>1.4036603426470031E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54">
+        <v>2.8093877894088494E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55">
+        <v>2.8076754096785336E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56">
+        <v>7.0176821463893937E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57">
+        <v>1.4054932253969107E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58">
+        <v>1.4045598223363393E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59">
+        <v>5.5564690032008805E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60">
+        <v>2.7919657774016834E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61">
+        <v>3.5652537842164418E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J62">
+        <v>7.1471048029648366E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63">
+        <v>7.1565279949976019E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64">
+        <v>1.7869063103792035E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65">
+        <v>3.5690018664276965E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66">
+        <v>3.5657788459535246E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67">
+        <v>1.4150194688004086E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68">
+        <v>0.11003032894153919</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69">
+        <v>1.4018547682109401E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70">
+        <v>2.8085070216109214E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" t="s">
+        <v>124</v>
+      </c>
+      <c r="J71">
+        <v>2.8090502758816051E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72">
+        <v>7.0203991757650464E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73">
+        <v>1.4046981771547846E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74">
+        <v>1.4036841985823589E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75">
+        <v>5.5632915815616614E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76">
+        <v>2.7912858509718089E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>145</v>
+      </c>
+      <c r="I77" t="s">
+        <v>130</v>
+      </c>
+      <c r="J77">
+        <v>3.5792015584238993E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I78" t="s">
+        <v>131</v>
+      </c>
+      <c r="J78">
+        <v>7.1634084652425324E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79">
+        <v>7.1462690571844666E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I80" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80">
+        <v>1.7886637736694772E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81">
+        <v>3.5971779431103182E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" t="s">
+        <v>135</v>
+      </c>
+      <c r="J82">
+        <v>3.5859913361869712E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83">
+        <v>1.411058185706111E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7494CA47-6A8D-458A-A8DC-A3C94C44D72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB1C6E-5CF9-4EF0-8989-95A6C308542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13</t>
-  </si>
-  <si>
-    <t>S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06</t>
+    <t>S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06</v>
+        <v>S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13</v>
+        <v>S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5771F2CE-D3AC-47AF-9707-FAE16CE869D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F2604A-A126-4D9E-A1EE-51836BA95628}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C712D-32F1-43B2-884B-D23D6EF4798F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08815502-EE2D-44FB-99F2-697099BD4112}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>8.8500694123091153E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95D6E96-C11F-4B1F-A7E6-C24B94BDA085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F685BC-2CF6-41B3-9981-89A05C833F83}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB1C6E-5CF9-4EF0-8989-95A6C308542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593F26D-0147-4E51-9DDB-E8857C435445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15</t>
-  </si>
-  <si>
-    <t>S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20</t>
+    <t>S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13</t>
+  </si>
+  <si>
+    <t>S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20</v>
+        <v>S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15</v>
+        <v>S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F2604A-A126-4D9E-A1EE-51836BA95628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26A7A60-DA9E-4FF6-8385-0D01FBF60AE9}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08815502-EE2D-44FB-99F2-697099BD4112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46814F90-17D4-49CE-B85C-2AE9FF77934C}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>0.31582600647848219</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F685BC-2CF6-41B3-9981-89A05C833F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718A789D-CF1C-4FEB-B7C8-442E98C20286}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593F26D-0147-4E51-9DDB-E8857C435445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1863B-4DAB-4967-B093-1675E8730966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13</t>
-  </si>
-  <si>
-    <t>S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06</t>
+    <t>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</t>
+  </si>
+  <si>
+    <t>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06</v>
+        <v>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13</v>
+        <v>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26A7A60-DA9E-4FF6-8385-0D01FBF60AE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F573ED54-F818-47D3-86FC-93C56E1B55E2}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46814F90-17D4-49CE-B85C-2AE9FF77934C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59916512-8CB6-49FD-9C00-040E713D02E5}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>0.31582600647848219</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.4043961129106895</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.16266774641369736</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718A789D-CF1C-4FEB-B7C8-442E98C20286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A8D46E-EB45-4CCF-8A82-6EAD09EA8D82}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1863B-4DAB-4967-B093-1675E8730966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C040E8-54AD-478B-B424-CCCD8F5F43FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</t>
-  </si>
-  <si>
-    <t>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</t>
+    <t>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</t>
+  </si>
+  <si>
+    <t>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</v>
+        <v>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</v>
+        <v>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F573ED54-F818-47D3-86FC-93C56E1B55E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8366C1B3-69F7-4DDB-84DE-B02544174C39}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59916512-8CB6-49FD-9C00-040E713D02E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49494BE-4F98-4D36-8916-8809B6EF331D}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>8.8500694123091153E-2</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.4043961129106895</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A8D46E-EB45-4CCF-8A82-6EAD09EA8D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A82AD-1C60-4F79-8B39-B1877A65D291}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C040E8-54AD-478B-B424-CCCD8F5F43FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE2004-B705-4477-BE32-6BE2F2EA27EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</t>
-  </si>
-  <si>
-    <t>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</t>
+    <t>S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</v>
+        <v>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</v>
+        <v>S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8366C1B3-69F7-4DDB-84DE-B02544174C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C7A05-95E8-47AE-9349-662FBA10F796}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49494BE-4F98-4D36-8916-8809B6EF331D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3104B-A635-4B7A-A907-57BEB44959D1}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.31582600647848219</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.16266774641369736</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N8">
-        <v>0.40439611291068944</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A82AD-1C60-4F79-8B39-B1877A65D291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE115144-8CF3-4D4C-89BC-0825D7C53773}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE2004-B705-4477-BE32-6BE2F2EA27EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285DFC6-F677-41FA-970C-5E6F03370EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</t>
+    <t>S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08</t>
+  </si>
+  <si>
+    <t>S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04</v>
+        <v>S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16</v>
+        <v>S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C7A05-95E8-47AE-9349-662FBA10F796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97455AD5-F08B-413D-AAFD-280DE6DEE42D}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3104B-A635-4B7A-A907-57BEB44959D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201F9E3-6DE6-4145-9895-C88B4DD935EC}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>0.4043961129106895</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>8.8500694123091153E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE115144-8CF3-4D4C-89BC-0825D7C53773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5588A-FC10-4292-9E8E-B44EFC3B4598}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285DFC6-F677-41FA-970C-5E6F03370EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E39AA2-5047-41FC-A6A8-3B976267E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08</t>
-  </si>
-  <si>
-    <t>S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01</t>
+    <t>S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18</t>
+  </si>
+  <si>
+    <t>S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01</v>
+        <v>S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08</v>
+        <v>S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97455AD5-F08B-413D-AAFD-280DE6DEE42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AF56FA-5046-4D89-98BF-60E43F7CE480}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201F9E3-6DE6-4145-9895-C88B4DD935EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34249CF-4170-4660-9081-67D05788EC82}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.31582600647848219</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5588A-FC10-4292-9E8E-B44EFC3B4598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52EBF40-044A-4746-BF0C-8286E2C3504D}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E39AA2-5047-41FC-A6A8-3B976267E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B005D-8270-4670-A241-A786ED516E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18</t>
-  </si>
-  <si>
-    <t>S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22</t>
+    <t>S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22</v>
+        <v>S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18</v>
+        <v>S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AF56FA-5046-4D89-98BF-60E43F7CE480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7DE064-496E-4F35-A0D9-0D93A68FA22B}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34249CF-4170-4660-9081-67D05788EC82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4DE5B-BFCE-4F19-86C7-956A949F8288}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.16266774641369736</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52EBF40-044A-4746-BF0C-8286E2C3504D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1D8654-C4A1-42D5-A977-850379C0D2BB}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B005D-8270-4670-A241-A786ED516E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8CDC2-1DC3-4EE5-8B0D-3462835E5EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</t>
-  </si>
-  <si>
-    <t>S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</t>
+    <t>S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07</t>
+  </si>
+  <si>
+    <t>S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</v>
+        <v>S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</v>
+        <v>S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7DE064-496E-4F35-A0D9-0D93A68FA22B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E475B513-AE78-4095-9858-F24F06D01C56}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4DE5B-BFCE-4F19-86C7-956A949F8288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383FA536-7346-4302-A816-BD839DDC2959}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N8">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1D8654-C4A1-42D5-A977-850379C0D2BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C44780-5590-45CB-AD61-748635B940AA}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB767D-1747-44FC-962A-845D878E197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8827432-FA0A-452D-A82D-3E613FF6CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</t>
+    <t>S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</v>
+        <v>S2aH1,S3aH7,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S6c1211h03,S6c1212h06,S6c1212h20,S6c1213h02,S6c1213h03,S6c1214h03,S6c1214h06,S6c1215h22,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S6c1210h05,S6c1210h06,S6c1211h06,S6c1212h21,S6c1213h20,S6c1214h19,S6c1214h24,S6c1215h20,S4aH6,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S6c1210h19,S6c1210h20,S6c1210h22,S6c1211h21,S6c1213h21,S6c1215h06,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S6aH8,S6c1210h01,S6c1210h02,S6c1211h22,S6c1211h23,S6c1212h22,S6c1212h24,S6c1214h05,S2aH6,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S6c1210h21,S6c1211h02,S6c1211h05,S6c1215h04,S6c1216h01,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S6aH6,S6c1210h03,S6c1211h04,S6c1211h20,S6c1214h02,S6c1214h23,S6c1216h23,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S6c1211h01,S6c1211h19,S6c1213h23,S6c1214h01,S6c1215h19,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S6c1210h04,S6c1211h24,S6c1212h23,S6c1214h04,S6c1215h01,S6c1216h24,S2aH8,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S6c1212h19,S6c1215h24,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S6aH1,S6c1210h23,S6c1213h04,S6c1215h02,S6c1215h03,S6c1215h05,S6c1215h21,S6c1215h23,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S6c1212h05,S6c1213h01,S6c1216h03,S6c1216h06,S1aH6,S5b1011h01,S6c1210h24,S6c1212h02,S6c1212h03,S6c1212h04,S6c1213h19,S6c1213h24,S6c1214h20,S6c1214h22,S6c1216h02,S6c1216h19,S5b1009h05,S5b1009h23,S5b1012h03,S6c1216h21,S1aH1,S2aH7,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S6c1212h01,S6c1213h06,S6c1213h22,S6c1216h04,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S6c1216h05,S6c1216h20,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S6aH7,S6c1213h05,S6c1214h21,S6c1216h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</v>
+        <v>S4aH2,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S6c1210h14,S6c1211h11,S6c1211h13,S6c1211h15,S6c1212h10,S6c1214h10,S6c1215h16,S6c1216h12,S6c1216h14,S6c1216h18,S3aH2,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S6c1210h15,S6c1211h07,S6c1213h08,S6c1213h16,S6c1215h07,S6c1215h10,S6c1215h11,S6c1216h10,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S6c1210h07,S6c1210h13,S6c1211h10,S6c1212h11,S6c1212h12,S6c1214h17,S6c1215h13,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S6c1210h11,S6c1215h17,S6c1215h18,S6c1216h07,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S6c1210h17,S6c1210h18,S6c1216h08,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S6c1210h16,S6c1211h09,S6c1211h17,S6c1214h14,S6c1214h18,S1aH2,S2aH3,S5b1009h16,S5b1011h12,S6c1210h09,S6c1212h14,S6c1214h07,S6c1215h09,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S6aH5,S6c1210h10,S6c1212h09,S6c1212h16,S6c1212h17,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S6c1211h14,S6c1212h18,S6c1213h07,S6c1214h13,S1aH4,S2aH2,S5b1009h13,S5b1011h14,S5b1013h14,S6c1211h18,S6c1214h09,S6c1214h12,S6c1214h15,S6c1214h16,S6c1216h17,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S6c1211h16,S6c1213h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S6aH2,S6c1210h08,S6c1213h09,S6c1213h10,S6c1214h11,S6c1215h08,S6c1215h12,S6c1216h13,S6c1216h15,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S6aH3,S6aH4,S6c1212h13,S6c1213h14,S6c1214h08,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S6c1211h08,S6c1211h12,S6c1213h11,S6c1215h14,S6c1216h09,S6c1216h16,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S6c1213h18,S6c1215h15,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S6c1210h12,S6c1212h07,S6c1212h08,S6c1212h15,S6c1213h12,S6c1213h15,S6c1213h17,S6c1216h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20EE90F-B964-455A-AFF3-E25084E9C739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE847E8-2004-4D3A-BEBB-50A136576C9B}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF3EE38-92E4-4C70-B1FB-141FDA0305AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9326810D-1383-4FF5-80DD-6F34A4E3B8FE}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.16266774641369736</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24818DFA-6B2B-45FB-B27C-6449E4F9FD0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B0768-5481-4EE1-A1E1-589F40658DAF}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE210EB-A0B6-4F04-A815-B676ED8F3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778280E-B6D4-448C-9995-D6A3DCC81B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17</t>
-  </si>
-  <si>
-    <t>S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22</t>
+    <t>S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17</t>
+  </si>
+  <si>
+    <t>S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22</v>
+        <v>S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17</v>
+        <v>S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D024B4-6FB4-44DE-8F7C-54833E3D4793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A449E727-3D68-4111-B29F-3CEA95215D52}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290310FF-A585-474F-90F1-9D7557A12331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BBC0C5-97F5-44FE-B2AA-54F3C98BBE1F}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371119E-2</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6705,7 +6705,7 @@
         <v>82</v>
       </c>
       <c r="N6">
-        <v>0.25116844053678855</v>
+        <v>0.2511684405367885</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>0.25252198056455344</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.37937297547431742</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21011E87-514F-41B0-A4A8-1DB99FF3D8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0151CFD9-A4F4-4E1D-BFA9-AD6C0895FACC}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778280E-B6D4-448C-9995-D6A3DCC81B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5607238-A733-48F3-B44B-4BCB8A4C9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17</t>
-  </si>
-  <si>
-    <t>S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23</t>
+    <t>S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07</t>
+  </si>
+  <si>
+    <t>S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23</v>
+        <v>S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17</v>
+        <v>S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A449E727-3D68-4111-B29F-3CEA95215D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4824CE-C1DF-4D9B-93B9-27BA9CEB7A52}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BBC0C5-97F5-44FE-B2AA-54F3C98BBE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9FB2C2-DFA8-4B94-9FC4-16F53E21503C}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.25252198056455344</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>0.2511684405367885</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>7.5520592318371119E-2</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.37937297547431742</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0151CFD9-A4F4-4E1D-BFA9-AD6C0895FACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C1957C-1AEC-4441-9C8A-11D8018AD2C2}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5607238-A733-48F3-B44B-4BCB8A4C9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3032E-631A-4782-8EEE-C1F20116E982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07</t>
-  </si>
-  <si>
-    <t>S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05</t>
+    <t>S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</t>
+  </si>
+  <si>
+    <t>S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05</v>
+        <v>S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07</v>
+        <v>S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4824CE-C1DF-4D9B-93B9-27BA9CEB7A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193A29A8-883D-4886-81CA-935B2C9A87BA}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9FB2C2-DFA8-4B94-9FC4-16F53E21503C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741BC6E0-A328-4376-B834-690ECDEF7FBD}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.25116844053678855</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.14770939379916706</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.25252198056455344</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.37937297547431742</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>819</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>7.5520592318371119E-2</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>9.3706617306802395E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C1957C-1AEC-4441-9C8A-11D8018AD2C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1744570-D301-48C5-8139-CAD2AD30DF36}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3032E-631A-4782-8EEE-C1F20116E982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0EDCD-A89C-43AE-9846-2741FB3CB4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2499,7 +2499,7 @@
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
-    <t>elc_win-ITA</t>
+    <t>elc_won-ITA</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</t>
-  </si>
-  <si>
-    <t>S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06</t>
+    <t>S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17</t>
+  </si>
+  <si>
+    <t>S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06</v>
+        <v>S6b1008h04,S6b1010h20,S6b1011h02,S6b1012h19,S6b1013h02,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S1aH1,S6b1009h02,S6b1013h19,S6c1217h21,S6c1220h06,S6c1221h22,S2aH1,S5aH8,S6b1009h19,S6b1011h04,S6b1013h05,S6b1013h20,S6b1013h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S3aH8,S6b1008h02,S6b1008h21,S6b1009h03,S6b1009h24,S6b1010h21,S6b1010h24,S6b1012h04,S6b1012h21,S6b1013h04,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6aH8,S6b1008h19,S6b1009h06,S6b1012h22,S6b1013h03,S6b1014h01,S6c1222h02,S6c1222h06,S4aH1,S6aH1,S6b1008h24,S6b1010h01,S6b1011h05,S6b1011h06,S6b1011h22,S6b1014h03,S6c1218h23,S6c1219h04,S6c1223h22,S6b1008h22,S6b1009h21,S6b1009h23,S6b1010h23,S6b1012h03,S6b1014h04,S6b1014h05,S6b1014h19,S6c1217h03,S6c1219h01,S6b1009h04,S6b1010h19,S6b1011h03,S6b1011h19,S6b1014h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1008h03,S6b1012h23,S6b1013h24,S6b1014h06,S6b1014h21,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S6b1010h22,S6b1011h24,S6b1012h06,S6b1014h23,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1010h03,S6b1011h01,S6b1012h24,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S1aH8,S5aH1,S6b1014h22,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S4aH8,S6b1008h05,S6b1008h20,S6b1010h04,S6b1010h06,S6b1011h20,S6b1011h23,S6b1012h02,S6b1013h06,S6b1013h22,S6b1014h02,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S6b1009h05,S6b1010h02,S6b1011h21,S6b1012h01,S6b1013h21,S6b1014h20,S6c1217h01,S6c1220h05,S3aH1,S6b1009h20,S6b1010h05,S6b1012h05,S6b1012h20,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S6b1008h01,S6b1008h06,S6b1008h23,S6b1009h01,S6b1009h22,S6b1013h01,S6c1217h05,S6c1223h01,S6c1223h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</v>
+        <v>S1aH3,S6b1008h16,S6b1010h09,S6b1011h14,S6b1012h14,S6b1012h15,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S6b1012h12,S6b1013h15,S6b1013h16,S6b1014h18,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S4aH2,S6b1010h15,S6b1012h07,S6b1013h18,S6b1014h13,S6c1219h16,S6c1221h11,S3aH2,S6b1009h17,S6b1011h07,S6b1011h11,S6b1013h10,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH6,S6b1008h12,S6b1008h13,S6b1010h07,S6b1010h13,S6b1010h14,S6b1011h12,S6b1012h11,S6b1012h18,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH4,S2aH2,S4aH6,S6b1008h17,S6b1010h16,S6b1012h13,S6b1013h08,S6b1014h09,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S6aH3,S6aH4,S6b1008h07,S6b1008h11,S6b1010h18,S6b1013h09,S6b1013h14,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1008h15,S6b1010h08,S6b1011h16,S6b1013h11,S6b1014h15,S6c1223h12,S6c1223h15,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6b1008h08,S6b1009h07,S6b1009h12,S6b1009h14,S6b1011h09,S6b1012h09,S6b1013h12,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S4aH5,S6b1008h09,S6b1011h08,S6b1011h13,S6b1014h07,S6b1014h12,S6b1014h14,S6b1014h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S6b1009h18,S6b1010h10,S6b1011h15,S6b1011h18,S6b1012h16,S6b1012h17,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S2aH6,S3aH5,S5aH3,S6b1009h11,S6b1009h15,S6b1014h17,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S6aH5,S6b1011h10,S6b1014h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S3aH3,S6b1010h17,S6b1011h17,S6b1012h10,S6b1013h13,S6b1013h17,S6c1217h12,S6c1218h09,S6c1219h14,S6aH7,S6b1008h14,S6b1009h08,S6b1009h10,S6b1009h13,S6b1009h16,S6b1010h11,S6b1013h07,S6b1014h08,S6b1014h10,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S6b1008h10,S6b1008h18,S6b1009h09,S6b1010h12,S6b1012h08,S6c1217h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193A29A8-883D-4886-81CA-935B2C9A87BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B8FFE4-C2B3-4652-9899-046F2B36B613}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741BC6E0-A328-4376-B834-690ECDEF7FBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF73E698-97FE-4A10-B5F4-A95777CFDB9B}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>819</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.37937297547431742</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.25252198056455344</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>819</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6">
-        <v>0.25116844053678855</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.14770939379916706</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1744570-D301-48C5-8139-CAD2AD30DF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40143DB-C1E8-4265-9C6A-465A2F7E57CD}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C5F93-0652-40EC-B797-401970415E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C11FD-D95D-45C0-94CF-929B577FAA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4</t>
-  </si>
-  <si>
-    <t>S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06</t>
+    <t>S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3</t>
+  </si>
+  <si>
+    <t>S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06</v>
+        <v>S4aH1,S4b1008h06,S4b1011h04,S4b1011h22,S4b1012h21,S4b1012h22,S4b1014h01,S4c1022h04,S4c1024h20,S4c1025h21,S4c1026h20,S1aH1,S2aH7,S4b1008h01,S4b1009h23,S4b1011h02,S4b1013h01,S4c1022h06,S4c1022h22,S4c1023h05,S4c1024h21,S4c1025h22,S4b1008h22,S4b1008h23,S4b1009h02,S4b1013h02,S4b1014h20,S4b1014h21,S4c1022h01,S4c1022h19,S4c1023h21,S4c1024h05,S4c1024h22,S4c1024h24,S4c1028h06,S3aH8,S4b1010h01,S4b1011h05,S4b1011h24,S4b1012h02,S4b1012h03,S4b1013h22,S4b1013h24,S4b1014h02,S4b1014h04,S4c1025h23,S4c1026h21,S4c1027h02,S4b1009h24,S4b1012h20,S4b1013h05,S4b1014h24,S4c1024h02,S4c1025h04,S4c1026h02,S4c1026h23,S4c1027h04,S4c1027h24,S4b1008h19,S4b1008h21,S4b1009h04,S4b1009h06,S4b1010h19,S4b1010h20,S4b1010h21,S4b1012h19,S4b1014h05,S4c1022h20,S4c1023h19,S4c1025h02,S4c1028h03,S1aH6,S4b1010h03,S4b1012h24,S4b1013h06,S4b1013h23,S4b1014h03,S4b1014h19,S4c1023h04,S4c1026h24,S4c1027h06,S4c1027h19,S4c1028h05,S4c1028h19,S1aH7,S3aH6,S4aH7,S4b1009h05,S4b1009h22,S4b1010h22,S4b1013h19,S4c1022h24,S4c1023h23,S4c1025h24,S4c1027h05,S4c1028h04,S5aH6,S5aH7,S2aH8,S4b1008h04,S4b1008h20,S4b1009h21,S4b1010h06,S4b1010h24,S4b1012h01,S4b1012h04,S4b1013h03,S4c1022h03,S4c1023h22,S4c1025h06,S4c1026h03,S4c1026h05,S4c1027h20,S4b1008h02,S4b1009h01,S4b1009h20,S4b1013h21,S4c1023h20,S4c1024h06,S4c1026h01,S4c1027h01,S4c1028h20,S2aH6,S3aH1,S4b1011h01,S4b1011h20,S4b1014h06,S4b1014h23,S4c1022h21,S4c1024h23,S4c1025h05,S4c1026h06,S4c1028h23,S2aH1,S3aH7,S4b1008h05,S4b1010h23,S4b1011h21,S4c1023h03,S4c1023h06,S4c1024h03,S4c1025h03,S4c1025h20,S4c1026h22,S4c1028h22,S4c1028h24,S5aH8,S4aH6,S4b1008h03,S4b1009h19,S4b1010h05,S4b1011h06,S4b1011h19,S4b1012h05,S4b1013h04,S4b1014h22,S4c1025h01,S4c1026h04,S4c1027h23,S4aH8,S4b1008h24,S4b1009h03,S4b1012h06,S4b1012h23,S4b1013h20,S4c1022h02,S4c1022h05,S4c1023h02,S4c1028h01,S4c1028h21,S4b1011h03,S4b1011h23,S4c1022h23,S4c1023h24,S4c1024h04,S4c1025h19,S4c1026h19,S4c1027h03,S4c1027h22,S1aH8,S4b1010h02,S4b1010h04,S4c1023h01,S4c1024h01,S4c1024h19,S4c1027h21,S4c1028h02,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4</v>
+        <v>S1aH4,S2aH2,S4b1008h07,S4b1011h08,S4b1013h07,S4b1013h13,S4c1023h12,S4c1026h08,S4c1026h09,S4b1008h17,S4b1009h16,S4b1010h08,S4b1012h18,S4b1013h09,S4b1014h14,S4c1024h10,S4c1024h17,S4c1027h17,S4b1008h14,S4b1009h14,S4b1012h12,S4c1022h08,S4c1022h17,S4c1025h09,S4c1026h13,S4c1027h08,S4c1027h10,S4c1028h07,S4c1028h09,S5aH4,S3aH2,S4b1010h11,S4b1010h13,S4b1012h10,S4b1012h13,S4b1012h15,S4b1013h17,S4c1022h13,S4c1026h16,S4c1027h11,S4c1027h16,S4b1008h12,S4b1011h14,S4b1011h17,S4b1013h12,S4c1023h13,S4c1024h08,S4c1024h09,S4c1024h12,S4c1026h12,S4c1028h10,S1aH2,S2aH3,S4b1009h13,S4b1010h12,S4b1010h18,S4b1011h09,S4b1011h10,S4c1024h07,S4c1024h14,S4c1025h08,S4c1025h15,S4c1026h17,S1aH5,S2aH4,S2aH5,S4b1008h09,S4b1008h18,S4b1009h07,S4b1009h09,S4b1009h15,S4b1010h16,S4b1011h11,S4b1012h07,S4b1012h17,S4b1014h08,S4b1014h12,S4c1023h07,S4c1023h14,S4c1026h18,S4c1028h12,S4c1028h15,S5aH2,S5aH5,S1aH3,S4b1010h17,S4c1023h09,S4c1025h13,S4c1026h15,S4b1008h10,S4b1008h11,S4b1009h10,S4b1009h11,S4b1009h17,S4b1011h18,S4b1013h10,S4b1013h15,S4b1014h15,S4c1022h10,S4c1022h11,S4c1025h14,S4aH5,S4b1008h13,S4b1010h09,S4b1010h15,S4b1012h08,S4b1012h09,S4b1012h16,S4b1013h08,S4b1014h11,S4c1024h15,S4c1024h16,S4c1025h18,S4b1009h18,S4b1011h13,S4b1014h07,S4b1014h17,S4b1014h18,S4c1023h18,S4c1024h18,S4c1025h10,S4c1025h12,S4c1025h17,S4c1027h09,S4aH2,S4b1011h12,S4b1011h15,S4c1022h07,S4c1022h09,S4c1022h18,S4c1026h11,S4c1028h18,S3aH3,S4b1010h14,S4b1013h16,S4c1022h16,S4c1023h08,S4c1023h17,S4c1024h13,S4c1025h16,S4c1026h07,S4c1027h07,S4c1027h13,S4c1028h08,S4b1014h16,S4c1022h15,S4c1023h15,S4c1023h16,S4c1025h07,S4c1027h14,S3aH4,S4aH3,S4aH4,S4b1008h08,S4b1008h15,S4b1008h16,S4b1009h08,S4b1010h07,S4b1010h10,S4b1011h07,S4b1012h14,S4b1013h14,S4c1022h14,S4c1024h11,S4c1026h10,S4c1026h14,S4c1027h15,S4c1027h18,S4c1028h13,S3aH5,S4b1009h12,S4b1011h16,S4b1012h11,S4b1013h11,S4b1013h18,S4b1014h09,S4b1014h10,S4b1014h13,S4c1022h12,S4c1023h10,S4c1023h11,S4c1025h11,S4c1027h12,S4c1028h11,S4c1028h14,S4c1028h16,S4c1028h17,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3AB1F-B4D8-4888-92F4-7D7917E240A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76643AA-1C7A-4258-90A1-9C290D1312AF}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62553D1-51AA-47A1-AA9E-F69F40E711CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F735B-370B-4310-B06F-E37DA0367612}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6600,10 +6600,10 @@
         <v>809</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O4" t="s">
         <v>820</v>
@@ -6635,10 +6635,10 @@
         <v>809</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O5" t="s">
         <v>820</v>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>7.5520592318371119E-2</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6705,10 +6705,10 @@
         <v>809</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>820</v>
@@ -6740,10 +6740,10 @@
         <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>0.63189495603887091</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O8" t="s">
         <v>820</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B99714-E6F6-4952-8581-CEE12EDA795A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331AD51-015A-431A-8988-994001E54D15}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
